--- a/Goal Seek and Solver.xlsx
+++ b/Goal Seek and Solver.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\r git hub\excell-for-professional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D54AC5-D9A6-4D2F-8D2A-2F19F24450B2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C5BA6D-B583-4E8B-86CF-4012EA68D0FD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Goal Seek" sheetId="18" r:id="rId1"/>
     <sheet name="Solver" sheetId="19" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">Solver!$B$5:$B$6,Solver!$B$9</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Solver!$B$5,Solver!$B$6,Solver!$B$9</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
@@ -51,7 +51,7 @@
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_val" localSheetId="1" hidden="1">350000</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">4500000</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="Table1">#REF!</definedName>
   </definedNames>
@@ -516,7 +516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43562898-49ED-4AD9-B9B5-5BB78C440B30}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -603,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E5500A-83DC-4D24-B4D4-9CD7B6803C8C}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -612,7 +612,8 @@
     <col min="1" max="1" width="26" style="3" customWidth="1"/>
     <col min="2" max="2" width="26" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="3"/>
+    <col min="4" max="4" width="16.28515625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -633,7 +634,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>17500.011699999995</v>
+        <v>225000.00000000003</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -650,7 +651,7 @@
       </c>
       <c r="B7" s="9">
         <f>B5*B6</f>
-        <v>525000.35099999991</v>
+        <v>6750000.0000000009</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -668,7 +669,7 @@
       </c>
       <c r="B10" s="13">
         <f>B5*B9</f>
-        <v>175000.11699999997</v>
+        <v>2250000.0000000005</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -678,7 +679,7 @@
       </c>
       <c r="B12" s="15">
         <f>B7-B10</f>
-        <v>350000.23399999994</v>
+        <v>4500000</v>
       </c>
     </row>
   </sheetData>
